--- a/src/main/resources/static/xls/产品库存.xlsx
+++ b/src/main/resources/static/xls/产品库存.xlsx
@@ -16,116 +16,181 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
-  <si>
-    <t>LM-6-C</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="52">
+  <si>
+    <t>LM-13-C</t>
+  </si>
+  <si>
+    <t>LM-16-C</t>
+  </si>
+  <si>
+    <t>LM-20-C</t>
+  </si>
+  <si>
+    <t>LM-25-C</t>
+  </si>
+  <si>
+    <t>LM-30-C</t>
+  </si>
+  <si>
+    <t>LM-35-C</t>
+  </si>
+  <si>
+    <t>LM-40-C</t>
+  </si>
+  <si>
+    <t>LM-50-C</t>
+  </si>
+  <si>
+    <t>仓库名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存货编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主计量单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现存数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可用数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01BA001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01BA002</t>
+  </si>
+  <si>
+    <t>01BA003</t>
+  </si>
+  <si>
+    <t>01BA004</t>
+  </si>
+  <si>
+    <t>01BA005</t>
+  </si>
+  <si>
+    <t>01BA006</t>
+  </si>
+  <si>
+    <t>01BA007</t>
+  </si>
+  <si>
+    <t>01BA008</t>
+  </si>
+  <si>
+    <t>01BA009</t>
+  </si>
+  <si>
+    <t>01BA010</t>
+  </si>
+  <si>
+    <t>01BA011</t>
+  </si>
+  <si>
+    <t>01BA012</t>
+  </si>
+  <si>
+    <t>01BA013</t>
+  </si>
+  <si>
+    <t>配件库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存货分类1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存货分类2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存货名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预置螺母06M4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预置螺母06M5</t>
+  </si>
+  <si>
+    <t>预置螺母06M6</t>
+  </si>
+  <si>
+    <t>预置螺母06M7</t>
+  </si>
+  <si>
+    <t>预置螺母06M8</t>
+  </si>
+  <si>
+    <t>预置螺母06M9</t>
+  </si>
+  <si>
+    <t>预置螺母06M10</t>
+  </si>
+  <si>
+    <t>预置螺母06M11</t>
+  </si>
+  <si>
+    <t>预置螺母06M12</t>
+  </si>
+  <si>
+    <t>预置螺母06M13</t>
+  </si>
+  <si>
+    <t>预置螺母06M14</t>
+  </si>
+  <si>
+    <t>预置螺母06M15</t>
+  </si>
+  <si>
+    <t>预置螺母06M16</t>
+  </si>
+  <si>
+    <t>工业铝型材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预置螺母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLB50-25-40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSFJ15-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSF8V-10-20-M30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LM-8-C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LM-8s-C</t>
-  </si>
-  <si>
-    <t>LM-10-C</t>
-  </si>
-  <si>
-    <t>LM-12-C</t>
-  </si>
-  <si>
-    <t>LM-13-C</t>
-  </si>
-  <si>
-    <t>LM-16-C</t>
-  </si>
-  <si>
-    <t>LM-20-C</t>
-  </si>
-  <si>
-    <t>LM-25-C</t>
-  </si>
-  <si>
-    <t>LM-30-C</t>
-  </si>
-  <si>
-    <t>LM-35-C</t>
-  </si>
-  <si>
-    <t>LM-40-C</t>
-  </si>
-  <si>
-    <t>LM-50-C</t>
-  </si>
-  <si>
-    <t>仓库名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存货编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规格型号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主计量单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现存数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可用数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01BA001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01BA002</t>
-  </si>
-  <si>
-    <t>01BA003</t>
-  </si>
-  <si>
-    <t>01BA004</t>
-  </si>
-  <si>
-    <t>01BA005</t>
-  </si>
-  <si>
-    <t>01BA006</t>
-  </si>
-  <si>
-    <t>01BA007</t>
-  </si>
-  <si>
-    <t>01BA008</t>
-  </si>
-  <si>
-    <t>01BA009</t>
-  </si>
-  <si>
-    <t>01BA010</t>
-  </si>
-  <si>
-    <t>01BA011</t>
-  </si>
-  <si>
-    <t>01BA012</t>
-  </si>
-  <si>
-    <t>01BA013</t>
-  </si>
-  <si>
-    <t>配件库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -133,10 +198,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
-  </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,14 +209,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -221,14 +275,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -531,298 +585,428 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="H1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1">
+        <v>200</v>
+      </c>
+      <c r="G2" s="1">
+        <v>100</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1">
+        <v>200</v>
+      </c>
+      <c r="G3" s="1">
+        <v>100</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="C4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1">
+        <v>100</v>
+      </c>
+      <c r="G4" s="1">
+        <v>100</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1">
+        <v>100</v>
+      </c>
+      <c r="G5" s="1">
+        <v>100</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1">
+        <v>100</v>
+      </c>
+      <c r="G6" s="1">
+        <v>100</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="3">
-        <v>200</v>
-      </c>
-      <c r="F2" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="E7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1">
+        <v>100</v>
+      </c>
+      <c r="G7" s="1">
+        <v>100</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="3">
-        <v>200</v>
-      </c>
-      <c r="F3" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1">
+        <v>100</v>
+      </c>
+      <c r="G8" s="1">
+        <v>100</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="3">
-        <v>100</v>
-      </c>
-      <c r="F4" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="E9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1">
+        <v>100</v>
+      </c>
+      <c r="G9" s="1">
+        <v>100</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="3">
-        <v>100</v>
-      </c>
-      <c r="F5" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="E10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1">
+        <v>100</v>
+      </c>
+      <c r="G10" s="1">
+        <v>100</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="3">
-        <v>100</v>
-      </c>
-      <c r="F6" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="E11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="1">
+        <v>100</v>
+      </c>
+      <c r="G11" s="1">
+        <v>100</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="3">
-        <v>100</v>
-      </c>
-      <c r="F7" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="E12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="1">
+        <v>100</v>
+      </c>
+      <c r="G12" s="1">
+        <v>100</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="3">
-        <v>100</v>
-      </c>
-      <c r="F8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="E13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="1">
+        <v>100</v>
+      </c>
+      <c r="G13" s="1">
+        <v>100</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="3">
-        <v>100</v>
-      </c>
-      <c r="F9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="3">
-        <v>100</v>
-      </c>
-      <c r="F10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="3">
-        <v>100</v>
-      </c>
-      <c r="F11" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="3">
-        <v>100</v>
-      </c>
-      <c r="F12" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="3">
-        <v>100</v>
-      </c>
-      <c r="F13" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="3">
-        <v>100</v>
-      </c>
-      <c r="F14" s="3">
-        <v>100</v>
+      <c r="E14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="1">
+        <v>100</v>
+      </c>
+      <c r="G14" s="1">
+        <v>100</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
